--- a/Sences/Jenior/J_CN_01/SENCE_J_CN_01.xlsx
+++ b/Sences/Jenior/J_CN_01/SENCE_J_CN_01.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Design" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t xml:space="preserve">主题</t>
   </si>
@@ -40,10 +40,125 @@
     <t xml:space="preserve">积木块</t>
   </si>
   <si>
-    <t xml:space="preserve">设定步骤</t>
+    <t xml:space="preserve">步骤描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">知识点</t>
   </si>
   <si>
     <t xml:space="preserve">背景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拖拉积木块生成背景，基础积木，其他积木必须在此基础上连接，并显示出坐标点，在球场中央中线标出6个随机点（颜色多一些），分属两边队员位置。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基础坐标系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">球门</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拖拉球门积木块，默认位置为背景左上角，通过球门属性坐标把球门放置在正确位置，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">坐标系应用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人物A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人物定位在背景中央圆圈附近的人物定点位置上，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人物B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人物C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人物D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人物E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人物F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">足球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定位在球场中央的足球点上。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP RESULT：携带结果进入下一个STEP，积木块保留至下一个STEP，同时STEP1的积木块扩充为可以连接子积木块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">球体滚动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">球体在中央位置随机滚动至任意一个人物，其他人物随机移动，由人物任意传递给任意人物，至少传递2次以上。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">随机计算</t>
+  </si>
+  <si>
+    <t xml:space="preserve">随机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">动作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对象跟动作的关系</t>
+  </si>
+  <si>
+    <t xml:space="preserve">传球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">判断</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP RESULT:携带STEP1结果进入下一个STEP，积木块保留第一个STEP积木块，同时STEP1的积木块扩充为可以连接子积木块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">键盘方向键上事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">连接积木块，点击运行后，选定人物绑定事件积木块后，可以使用键盘控制人物在SENCE上移动带球，按键可以触发传球跟事件，无需按游戏流程，只需要传
+球的事件触发时，发送球体到对应方向即可，同理，对于射门时一致的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">键盘方向键下事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">键盘方向键左事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">键盘方向键右事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空格传球事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl键射门事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP RESULT:携带STEP1结果进入下一个STEP，无扩充积木块</t>
   </si>
 </sst>
 </file>
@@ -135,7 +250,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +311,14 @@
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007FFF"/>
+        <bgColor rgb="FF3366FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -227,6 +348,27 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -252,24 +394,56 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,15 +465,59 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -351,7 +569,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF007FFF"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -395,15 +613,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="96.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,34 +661,383 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="40">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A2:B2"/>
@@ -474,8 +1045,39 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:B12"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:B19"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H19"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:B26"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A27:I27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
